--- a/Figure3 and Supplement3/sce/sce_detectedRNA_orthogroups.xlsx
+++ b/Figure3 and Supplement3/sce/sce_detectedRNA_orthogroups.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure3 and Supplement3/sce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574D0BB4-0101-B94C-8FAB-0A4CE1662073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090A6991-52EA-3846-B1BD-458BEAF4F217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37920" yWindow="4180" windowWidth="27640" windowHeight="16940" xr2:uid="{F3E0BDD9-231E-4C40-BED3-C726790C8885}"/>
   </bookViews>
   <sheets>
     <sheet name="SCE Detected mRNAs" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11159" uniqueCount="5583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11160" uniqueCount="5584">
   <si>
     <t>YOR063W</t>
   </si>
@@ -16774,6 +16780,9 @@
   </si>
   <si>
     <t>mRNAs detected</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -17134,10 +17143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D12E0-967A-3F44-91E9-974737782C42}">
-  <dimension ref="A1:I5577"/>
+  <dimension ref="A1:K5577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="D7:I8"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17145,12 +17154,12 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5043</v>
       </c>
@@ -17158,7 +17167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5190</v>
       </c>
@@ -17166,7 +17175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5028</v>
       </c>
@@ -17174,7 +17183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5196</v>
       </c>
@@ -17182,7 +17191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5189</v>
       </c>
@@ -17190,7 +17199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5048</v>
       </c>
@@ -17212,8 +17221,11 @@
       <c r="I7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5171</v>
       </c>
@@ -17238,8 +17250,11 @@
       <c r="I8">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5248</v>
       </c>
@@ -17247,7 +17262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5349</v>
       </c>
@@ -17255,7 +17270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5198</v>
       </c>
@@ -17263,7 +17278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5069</v>
       </c>
@@ -17271,7 +17286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5315</v>
       </c>
@@ -17279,7 +17294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5146</v>
       </c>
@@ -17287,7 +17302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5213</v>
       </c>
@@ -17295,7 +17310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5279</v>
       </c>
